--- a/data/Final_verification.xlsx
+++ b/data/Final_verification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yuyouyu\SHU\MaterialFilter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A1617-9E0D-4949-B309-609880AE7F77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2E3ED6-8DED-4A71-9A93-BD2F5EBA9F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>formula</t>
   </si>
@@ -38,27 +38,6 @@
   </si>
   <si>
     <t>EL_pred</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Co</t>
-  </si>
-  <si>
-    <t>Cr</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>Ni</t>
-  </si>
-  <si>
-    <t>Mn</t>
-  </si>
-  <si>
-    <t>Cu</t>
   </si>
   <si>
     <t>Al10Co21Cr21Fe21Ni15Mn10</t>
@@ -498,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="R22" sqref="R21:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,31 +504,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -566,31 +524,10 @@
       <c r="F2">
         <v>15.924780092080139</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -607,31 +544,10 @@
       <c r="F3">
         <v>21.80310229535274</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -648,31 +564,10 @@
       <c r="F4">
         <v>25.735235460053861</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -689,31 +584,10 @@
       <c r="F5">
         <v>29.320319023689411</v>
       </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -730,31 +604,10 @@
       <c r="F6">
         <v>14.547171954904149</v>
       </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -771,31 +624,10 @@
       <c r="F7">
         <v>10.550540686101611</v>
       </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>19</v>
-      </c>
-      <c r="J7">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>19</v>
-      </c>
-      <c r="L7">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -812,31 +644,10 @@
       <c r="F8">
         <v>13.42046824878356</v>
       </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>19</v>
-      </c>
-      <c r="I8">
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <v>19</v>
-      </c>
-      <c r="K8">
-        <v>19</v>
-      </c>
-      <c r="L8">
-        <v>9</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -853,31 +664,10 @@
       <c r="F9">
         <v>12.956457042368561</v>
       </c>
-      <c r="G9">
-        <v>14</v>
-      </c>
-      <c r="H9">
-        <v>19</v>
-      </c>
-      <c r="I9">
-        <v>19</v>
-      </c>
-      <c r="J9">
-        <v>19</v>
-      </c>
-      <c r="K9">
-        <v>19</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -894,31 +684,10 @@
       <c r="F10">
         <v>15.37667912757624</v>
       </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="I10">
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <v>19</v>
-      </c>
-      <c r="K10">
-        <v>19</v>
-      </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -935,31 +704,10 @@
       <c r="F11">
         <v>17.82216644327853</v>
       </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>19</v>
-      </c>
-      <c r="I11">
-        <v>19</v>
-      </c>
-      <c r="J11">
-        <v>19</v>
-      </c>
-      <c r="K11">
-        <v>19</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -976,31 +724,10 @@
       <c r="F12">
         <v>12.254873938303209</v>
       </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
-      <c r="I12">
-        <v>19</v>
-      </c>
-      <c r="J12">
-        <v>19</v>
-      </c>
-      <c r="K12">
-        <v>19</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1017,31 +744,10 @@
       <c r="F13">
         <v>13.08262729665431</v>
       </c>
-      <c r="G13">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
-      <c r="I13">
-        <v>18</v>
-      </c>
-      <c r="J13">
-        <v>18</v>
-      </c>
-      <c r="K13">
-        <v>18</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1058,31 +764,10 @@
       <c r="F14">
         <v>10.43967806273873</v>
       </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <v>18</v>
-      </c>
-      <c r="J14">
-        <v>18</v>
-      </c>
-      <c r="K14">
-        <v>18</v>
-      </c>
-      <c r="L14">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1099,31 +784,10 @@
       <c r="F15">
         <v>10.938156079546211</v>
       </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>18</v>
-      </c>
-      <c r="I15">
-        <v>18</v>
-      </c>
-      <c r="J15">
-        <v>18</v>
-      </c>
-      <c r="K15">
-        <v>18</v>
-      </c>
-      <c r="L15">
-        <v>9</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1140,31 +804,10 @@
       <c r="F16">
         <v>16.629618114361289</v>
       </c>
-      <c r="G16">
-        <v>13</v>
-      </c>
-      <c r="H16">
-        <v>18</v>
-      </c>
-      <c r="I16">
-        <v>18</v>
-      </c>
-      <c r="J16">
-        <v>18</v>
-      </c>
-      <c r="K16">
-        <v>18</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1181,31 +824,10 @@
       <c r="F17">
         <v>20.534720574438659</v>
       </c>
-      <c r="G17">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>13</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
-      <c r="I17">
-        <v>18</v>
-      </c>
-      <c r="J17">
-        <v>18</v>
-      </c>
-      <c r="K17">
-        <v>18</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1222,31 +844,10 @@
       <c r="F18">
         <v>10.438026649980561</v>
       </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="I18">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>16</v>
-      </c>
-      <c r="K18">
-        <v>16</v>
-      </c>
-      <c r="L18">
-        <v>20</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1263,31 +864,10 @@
       <c r="F19">
         <v>18.822985123361619</v>
       </c>
-      <c r="G19">
-        <v>11</v>
-      </c>
-      <c r="H19">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>15</v>
-      </c>
-      <c r="I19">
-        <v>15</v>
-      </c>
-      <c r="J19">
-        <v>15</v>
-      </c>
-      <c r="K19">
-        <v>15</v>
-      </c>
-      <c r="L19">
-        <v>23</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1304,31 +884,10 @@
       <c r="F20">
         <v>12.39869279220121</v>
       </c>
-      <c r="G20">
-        <v>13</v>
-      </c>
-      <c r="H20">
-        <v>18</v>
-      </c>
-      <c r="I20">
-        <v>18</v>
-      </c>
-      <c r="J20">
-        <v>18</v>
-      </c>
-      <c r="K20">
-        <v>22</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1345,31 +904,10 @@
       <c r="F21">
         <v>16.794939588025791</v>
       </c>
-      <c r="G21">
-        <v>13</v>
-      </c>
-      <c r="H21">
-        <v>18</v>
-      </c>
-      <c r="I21">
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <v>18</v>
-      </c>
-      <c r="K21">
-        <v>22</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1386,31 +924,10 @@
       <c r="F22">
         <v>16.37374669808835</v>
       </c>
-      <c r="G22">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>18</v>
-      </c>
-      <c r="I22">
-        <v>18</v>
-      </c>
-      <c r="J22">
-        <v>18</v>
-      </c>
-      <c r="K22">
-        <v>22</v>
-      </c>
-      <c r="L22">
-        <v>9</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1427,31 +944,10 @@
       <c r="F23">
         <v>20.53637101206855</v>
       </c>
-      <c r="G23">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>18</v>
-      </c>
-      <c r="I23">
-        <v>18</v>
-      </c>
-      <c r="J23">
-        <v>18</v>
-      </c>
-      <c r="K23">
-        <v>22</v>
-      </c>
-      <c r="L23">
-        <v>9</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1468,31 +964,10 @@
       <c r="F24">
         <v>20.566500117801731</v>
       </c>
-      <c r="G24">
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <v>18</v>
-      </c>
-      <c r="I24">
-        <v>18</v>
-      </c>
-      <c r="J24">
-        <v>18</v>
-      </c>
-      <c r="K24">
-        <v>22</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1509,31 +984,10 @@
       <c r="F25">
         <v>11.64837618301579</v>
       </c>
-      <c r="G25">
-        <v>11</v>
-      </c>
-      <c r="H25">
-        <v>15</v>
-      </c>
-      <c r="I25">
-        <v>15</v>
-      </c>
-      <c r="J25">
-        <v>15</v>
-      </c>
-      <c r="K25">
-        <v>19</v>
-      </c>
-      <c r="L25">
-        <v>19</v>
-      </c>
-      <c r="M25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1550,31 +1004,10 @@
       <c r="F26">
         <v>10.17775055316125</v>
       </c>
-      <c r="G26">
-        <v>11</v>
-      </c>
-      <c r="H26">
-        <v>15</v>
-      </c>
-      <c r="I26">
-        <v>15</v>
-      </c>
-      <c r="J26">
-        <v>15</v>
-      </c>
-      <c r="K26">
-        <v>19</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1591,31 +1024,10 @@
       <c r="F27">
         <v>17.004140339884721</v>
       </c>
-      <c r="G27">
-        <v>14</v>
-      </c>
-      <c r="H27">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>19</v>
-      </c>
-      <c r="I27">
-        <v>19</v>
-      </c>
-      <c r="J27">
-        <v>19</v>
-      </c>
-      <c r="K27">
-        <v>28</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1632,31 +1044,10 @@
       <c r="F28">
         <v>14.200986140594321</v>
       </c>
-      <c r="G28">
-        <v>13</v>
-      </c>
-      <c r="H28">
-        <v>18</v>
-      </c>
-      <c r="I28">
-        <v>18</v>
-      </c>
-      <c r="J28">
-        <v>18</v>
-      </c>
-      <c r="K28">
-        <v>27</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1673,31 +1064,10 @@
       <c r="F29">
         <v>22.616784113324101</v>
       </c>
-      <c r="G29">
-        <v>13</v>
-      </c>
-      <c r="H29">
-        <v>17</v>
-      </c>
-      <c r="I29">
-        <v>17</v>
-      </c>
-      <c r="J29">
-        <v>17</v>
-      </c>
-      <c r="K29">
-        <v>26</v>
-      </c>
-      <c r="L29">
-        <v>8</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1714,31 +1084,10 @@
       <c r="F30">
         <v>19.35011015711828</v>
       </c>
-      <c r="G30">
-        <v>12</v>
-      </c>
-      <c r="H30">
-        <v>16</v>
-      </c>
-      <c r="I30">
-        <v>16</v>
-      </c>
-      <c r="J30">
-        <v>16</v>
-      </c>
-      <c r="K30">
-        <v>25</v>
-      </c>
-      <c r="L30">
-        <v>12</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1755,31 +1104,10 @@
       <c r="F31">
         <v>13.2794726115369</v>
       </c>
-      <c r="G31">
-        <v>12</v>
-      </c>
-      <c r="H31">
-        <v>16</v>
-      </c>
-      <c r="I31">
-        <v>16</v>
-      </c>
-      <c r="J31">
-        <v>16</v>
-      </c>
-      <c r="K31">
-        <v>24</v>
-      </c>
-      <c r="L31">
-        <v>16</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1796,31 +1124,10 @@
       <c r="F32">
         <v>20.7891434003825</v>
       </c>
-      <c r="G32">
-        <v>11</v>
-      </c>
-      <c r="H32">
-        <v>15</v>
-      </c>
-      <c r="I32">
-        <v>15</v>
-      </c>
-      <c r="J32">
-        <v>15</v>
-      </c>
-      <c r="K32">
-        <v>23</v>
-      </c>
-      <c r="L32">
-        <v>19</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1837,31 +1144,10 @@
       <c r="F33">
         <v>17.083212551453489</v>
       </c>
-      <c r="G33">
-        <v>12</v>
-      </c>
-      <c r="H33">
-        <v>16</v>
-      </c>
-      <c r="I33">
-        <v>16</v>
-      </c>
-      <c r="J33">
-        <v>16</v>
-      </c>
-      <c r="K33">
-        <v>29</v>
-      </c>
-      <c r="L33">
-        <v>8</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1878,31 +1164,10 @@
       <c r="F34">
         <v>23.883898548885881</v>
       </c>
-      <c r="G34">
-        <v>13</v>
-      </c>
-      <c r="H34">
-        <v>18</v>
-      </c>
-      <c r="I34">
-        <v>18</v>
-      </c>
-      <c r="J34">
-        <v>18</v>
-      </c>
-      <c r="K34">
-        <v>31</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1919,31 +1184,10 @@
       <c r="F35">
         <v>30.961754299013752</v>
       </c>
-      <c r="G35">
-        <v>13</v>
-      </c>
-      <c r="H35">
-        <v>17</v>
-      </c>
-      <c r="I35">
-        <v>17</v>
-      </c>
-      <c r="J35">
-        <v>17</v>
-      </c>
-      <c r="K35">
-        <v>34</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1960,31 +1204,10 @@
       <c r="F36">
         <v>31.167347289101858</v>
       </c>
-      <c r="G36">
-        <v>14</v>
-      </c>
-      <c r="H36">
-        <v>14</v>
-      </c>
-      <c r="I36">
-        <v>14</v>
-      </c>
-      <c r="J36">
-        <v>14</v>
-      </c>
-      <c r="K36">
-        <v>42</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2000,27 +1223,6 @@
       </c>
       <c r="F37">
         <v>22.478908705693261</v>
-      </c>
-      <c r="G37">
-        <v>13</v>
-      </c>
-      <c r="H37">
-        <v>13</v>
-      </c>
-      <c r="I37">
-        <v>13</v>
-      </c>
-      <c r="J37">
-        <v>13</v>
-      </c>
-      <c r="K37">
-        <v>46</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
